--- a/Actividades a realizar.xlsx
+++ b/Actividades a realizar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Actividades a realizar</t>
   </si>
@@ -104,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -161,6 +167,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +451,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,8 +497,8 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -512,8 +519,8 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -544,8 +551,8 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
@@ -556,19 +563,21 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
     </row>
   </sheetData>
